--- a/artfynd/A 42835-2021.xlsx
+++ b/artfynd/A 42835-2021.xlsx
@@ -1144,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>88020956</v>
+        <v>88020962</v>
       </c>
       <c r="B6" t="n">
-        <v>56395</v>
+        <v>96356</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,43 +1156,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>219847</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Skalmodal, Ly lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>476885.8162237664</v>
+        <v>476894.9525644757</v>
       </c>
       <c r="R6" t="n">
-        <v>7258355.006574076</v>
+        <v>7258562.123150692</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1265,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>88020962</v>
+        <v>88020956</v>
       </c>
       <c r="B7" t="n">
-        <v>96356</v>
+        <v>56395</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1277,38 +1272,43 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>219847</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Skalmodal, Ly lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>476894.9525644757</v>
+        <v>476885.8162237664</v>
       </c>
       <c r="R7" t="n">
-        <v>7258562.123150692</v>
+        <v>7258355.006574076</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>

--- a/artfynd/A 42835-2021.xlsx
+++ b/artfynd/A 42835-2021.xlsx
@@ -1144,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>88020962</v>
+        <v>88020956</v>
       </c>
       <c r="B6" t="n">
-        <v>96356</v>
+        <v>56395</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,38 +1156,43 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>219847</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Skalmodal, Ly lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>476894.9525644757</v>
+        <v>476885.8162237664</v>
       </c>
       <c r="R6" t="n">
-        <v>7258562.123150692</v>
+        <v>7258355.006574076</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1260,10 +1265,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>88020956</v>
+        <v>88020962</v>
       </c>
       <c r="B7" t="n">
-        <v>56395</v>
+        <v>96356</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,43 +1277,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>219847</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Skalmodal, Ly lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>476885.8162237664</v>
+        <v>476894.9525644757</v>
       </c>
       <c r="R7" t="n">
-        <v>7258355.006574076</v>
+        <v>7258562.123150692</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
